--- a/data/trans_orig/P14B13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC30F2B-C687-4221-BEA9-4A4641B905C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{364A2DD6-C1E4-499D-87A3-F64E4BAE550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4969ED0F-E139-478E-B0CB-99759E643E3E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF3B3AF6-5054-4971-90E3-EC317F64A000}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="384">
   <si>
     <t>Población cuyo dolor de espalda le limita en 2012 (Tasa respuesta: 13,39%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>28,55%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
   </si>
   <si>
     <t>47,87%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>71,45%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>52,13%</t>
   </si>
   <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
   </si>
   <si>
     <t>59,95%</t>
   </si>
   <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>48,7%</t>
   </si>
   <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
   </si>
   <si>
     <t>51,3%</t>
   </si>
   <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
   </si>
   <si>
     <t>52,3%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
   </si>
   <si>
     <t>51,9%</t>
   </si>
   <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,55 +196,49 @@
     <t>55,72%</t>
   </si>
   <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
   </si>
   <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>60,29%</t>
   </si>
   <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
+    <t>68,44%</t>
   </si>
   <si>
     <t>44,28%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
   </si>
   <si>
     <t>39,71%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>31,56%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -253,55 +247,55 @@
     <t>69,92%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>70,98%</t>
   </si>
   <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
   </si>
   <si>
     <t>29,02%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -310,49 +304,55 @@
     <t>66,59%</t>
   </si>
   <si>
-    <t>78,04%</t>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>21,96%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -361,109 +361,109 @@
     <t>76,57%</t>
   </si>
   <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
   </si>
   <si>
     <t>66,02%</t>
   </si>
   <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>33,98%</t>
   </si>
   <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -484,13 +484,13 @@
     <t>17,64%</t>
   </si>
   <si>
-    <t>45,89%</t>
+    <t>47,67%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>44,16%</t>
+    <t>44,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -502,331 +502,331 @@
     <t>82,36%</t>
   </si>
   <si>
-    <t>54,11%</t>
+    <t>52,33%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>55,84%</t>
+    <t>55,52%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>57,33%</t>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>49,78%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>60,66%</t>
   </si>
   <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>42,67%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
   </si>
   <si>
     <t>50,22%</t>
   </si>
   <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
   </si>
   <si>
     <t>50,38%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>49,62%</t>
   </si>
   <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
   </si>
   <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>34,65%</t>
   </si>
   <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>34,35%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>79,81%</t>
   </si>
   <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>75,86%</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
   </si>
   <si>
     <t>24,14%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>83,07%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>78,39%</t>
   </si>
   <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>16,93%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
   </si>
   <si>
     <t>73,97%</t>
   </si>
   <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>27,64%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>Población cuyo dolor de espalda le limita en 2023 (Tasa respuesta: 29,15%)</t>
@@ -835,349 +835,361 @@
     <t>11,57%</t>
   </si>
   <si>
+    <t>74,82%</t>
+  </si>
+  <si>
     <t>58,44%</t>
   </si>
   <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>67,6%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
+    <t>25,18%</t>
+  </si>
+  <si>
     <t>41,56%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>32,4%</t>
   </si>
   <si>
     <t>42,08%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
   </si>
   <si>
     <t>38,21%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
   </si>
   <si>
     <t>57,92%</t>
   </si>
   <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
   </si>
   <si>
     <t>61,79%</t>
   </si>
   <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>61,61%</t>
   </si>
   <si>
-    <t>46,67%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
   </si>
   <si>
     <t>57,85%</t>
   </si>
   <si>
-    <t>49,89%</t>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>65,47%</t>
   </si>
   <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>53,33%</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
+    <t>48,38%</t>
   </si>
   <si>
     <t>57,82%</t>
   </si>
   <si>
-    <t>66,08%</t>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>62,05%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>42,18%</t>
   </si>
   <si>
-    <t>33,92%</t>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>37,95%</t>
   </si>
   <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>72,45%</t>
   </si>
   <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
   </si>
   <si>
     <t>29,99%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
   </si>
   <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
   </si>
   <si>
     <t>66,67%</t>
   </si>
   <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>33,33%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
   </si>
   <si>
     <t>62,55%</t>
   </si>
   <si>
-    <t>58,67%</t>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>69,1%</t>
   </si>
   <si>
     <t>37,45%</t>
   </si>
   <si>
-    <t>41,33%</t>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
+    <t>30,9%</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0F8881-3A46-420D-8D04-246D99B1C65E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208A7B8E-A04F-4B3B-BED1-03A7EAD0AFB3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2056,10 +2068,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2086,13 @@
         <v>18572</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -2089,13 +2101,13 @@
         <v>34374</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -2104,13 +2116,13 @@
         <v>52947</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,7 +2178,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2178,13 +2190,13 @@
         <v>38688</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -2193,13 +2205,13 @@
         <v>76276</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -2208,13 +2220,13 @@
         <v>114964</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2241,13 @@
         <v>16644</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2244,13 +2256,13 @@
         <v>31180</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -2259,13 +2271,13 @@
         <v>47824</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,7 +2333,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2333,13 +2345,13 @@
         <v>35333</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -2348,13 +2360,13 @@
         <v>86738</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -2363,13 +2375,13 @@
         <v>122071</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2396,13 @@
         <v>17727</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -2808,7 +2820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70BD1C4-1485-44BF-90F2-32FCD0AA4769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BC2E40-7B10-4B20-9551-DB6F4FBE2EA2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3093,7 +3105,7 @@
         <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3102,13 +3114,13 @@
         <v>16011</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3117,13 +3129,13 @@
         <v>29553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3150,13 @@
         <v>3019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3153,13 +3165,13 @@
         <v>16150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -3168,13 +3180,13 @@
         <v>19169</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3254,13 @@
         <v>22953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3257,13 +3269,13 @@
         <v>44443</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -3272,13 +3284,13 @@
         <v>67396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3305,13 @@
         <v>22608</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -3308,13 +3320,13 @@
         <v>13128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -3323,13 +3335,13 @@
         <v>35737</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,7 +3397,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3397,13 +3409,13 @@
         <v>38826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -3412,13 +3424,13 @@
         <v>63089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -3427,13 +3439,13 @@
         <v>101915</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3460,13 @@
         <v>20319</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -3463,13 +3475,13 @@
         <v>23131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -3478,13 +3490,13 @@
         <v>43450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3552,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3552,13 +3564,13 @@
         <v>47328</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3567,13 +3579,13 @@
         <v>76545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -3582,13 +3594,13 @@
         <v>123873</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3615,13 @@
         <v>11975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3618,13 +3630,13 @@
         <v>27444</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -3633,13 +3645,13 @@
         <v>39419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3719,13 @@
         <v>70189</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -3722,13 +3734,13 @@
         <v>162518</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>211</v>
@@ -3737,13 +3749,13 @@
         <v>232707</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3770,13 @@
         <v>24524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -4027,7 +4039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EED97A-3C91-4420-8F2B-CEE114E2197A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D1039B-9EE6-4CC5-82C7-933B7CF28125}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4157,7 +4169,7 @@
         <v>144</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4166,13 +4178,13 @@
         <v>20320</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4181,10 +4193,10 @@
         <v>22270</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>270</v>
@@ -4205,7 +4217,7 @@
         <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>151</v>
@@ -4217,13 +4229,13 @@
         <v>14450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4232,13 +4244,13 @@
         <v>29358</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,7 +4479,7 @@
         <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -4476,13 +4488,13 @@
         <v>69917</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -4491,13 +4503,13 @@
         <v>105229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4524,13 @@
         <v>22000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -4527,13 +4539,13 @@
         <v>50940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -4542,13 +4554,13 @@
         <v>72941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,7 +4616,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4616,13 +4628,13 @@
         <v>80115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>203</v>
@@ -4631,13 +4643,13 @@
         <v>135874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>280</v>
@@ -4646,13 +4658,13 @@
         <v>215989</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4679,13 @@
         <v>58439</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>113</v>
@@ -4682,13 +4694,13 @@
         <v>73649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -4697,13 +4709,13 @@
         <v>132088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,7 +4771,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4771,13 +4783,13 @@
         <v>114811</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
         <v>276</v>
@@ -4786,13 +4798,13 @@
         <v>169233</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>399</v>
@@ -4801,13 +4813,13 @@
         <v>284045</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4834,13 @@
         <v>49177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -4837,13 +4849,13 @@
         <v>64360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -4852,13 +4864,13 @@
         <v>113536</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4938,13 @@
         <v>151812</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H19" s="7">
         <v>693</v>
@@ -4941,13 +4953,13 @@
         <v>372702</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M19" s="7">
         <v>922</v>
@@ -4956,13 +4968,13 @@
         <v>524513</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4989,13 @@
         <v>75894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -4992,13 +5004,13 @@
         <v>101658</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>294</v>
@@ -5007,13 +5019,13 @@
         <v>177552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5093,13 @@
         <v>396221</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>370</v>
       </c>
       <c r="H22" s="7">
         <v>1300</v>
@@ -5096,13 +5108,13 @@
         <v>788312</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>1773</v>
@@ -5111,13 +5123,13 @@
         <v>1184534</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5144,13 @@
         <v>237240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>377</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H23" s="7">
         <v>515</v>
@@ -5147,13 +5159,13 @@
         <v>340773</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>776</v>
@@ -5162,13 +5174,13 @@
         <v>578012</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>379</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B13-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{364A2DD6-C1E4-499D-87A3-F64E4BAE550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4955DB70-4FCB-4811-A9D0-CE7F956176D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF3B3AF6-5054-4971-90E3-EC317F64A000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{714FABFC-74E4-4579-A1B4-EB266C7ED2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="388">
   <si>
     <t>Población cuyo dolor de espalda le limita en 2012 (Tasa respuesta: 13,39%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>28,55%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
   </si>
   <si>
     <t>47,87%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>71,45%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>52,13%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>59,95%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>48,7%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>51,3%</t>
   </si>
   <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
   </si>
   <si>
     <t>52,3%</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
   </si>
   <si>
     <t>51,9%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,49 +196,55 @@
     <t>55,72%</t>
   </si>
   <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
   </si>
   <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
   </si>
   <si>
     <t>60,29%</t>
   </si>
   <si>
-    <t>68,44%</t>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
   </si>
   <si>
     <t>44,28%</t>
   </si>
   <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
   </si>
   <si>
     <t>39,71%</t>
   </si>
   <si>
-    <t>31,56%</t>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -247,55 +253,55 @@
     <t>69,92%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>70,98%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>29,02%</t>
   </si>
   <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -304,55 +310,55 @@
     <t>66,59%</t>
   </si>
   <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -361,16 +367,16 @@
     <t>76,57%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>83,93%</t>
+    <t>84,0%</t>
   </si>
   <si>
     <t>92,2%</t>
@@ -379,19 +385,19 @@
     <t>85,09%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>11,23%</t>
@@ -400,76 +406,76 @@
     <t>7,8%</t>
   </si>
   <si>
-    <t>16,07%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
   <si>
     <t>66,02%</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
   </si>
   <si>
     <t>33,98%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo dolor de espalda le limita en 2015 (Tasa respuesta: 10,75%)</t>
+    <t>Población cuyo dolor de espalda le limita en 2016 (Tasa respuesta: 10,75%)</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -484,13 +490,13 @@
     <t>17,64%</t>
   </si>
   <si>
-    <t>47,67%</t>
+    <t>53,49%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>44,48%</t>
+    <t>45,15%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -502,376 +508,382 @@
     <t>82,36%</t>
   </si>
   <si>
-    <t>52,33%</t>
+    <t>46,51%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>55,52%</t>
+    <t>54,85%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>49,78%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>60,66%</t>
   </si>
   <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
   </si>
   <si>
     <t>50,22%</t>
   </si>
   <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
   </si>
   <si>
     <t>50,38%</t>
   </si>
   <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
   </si>
   <si>
     <t>49,62%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
   </si>
   <si>
     <t>34,65%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
   </si>
   <si>
     <t>34,35%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
   </si>
   <si>
     <t>79,81%</t>
   </si>
   <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>75,86%</t>
   </si>
   <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
   </si>
   <si>
     <t>24,14%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>83,07%</t>
+    <t>62,79%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>78,39%</t>
   </si>
   <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>16,93%</t>
+    <t>37,21%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>73,97%</t>
   </si>
   <si>
-    <t>69,97%</t>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>Población cuyo dolor de espalda le limita en 2023 (Tasa respuesta: 29,15%)</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>78,11%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>Población cuyo dolor de espalda le limita en 2023 (Tasa respuesta: 29,15%)</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
   </si>
   <si>
     <t>42,08%</t>
@@ -1601,7 +1613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208A7B8E-A04F-4B3B-BED1-03A7EAD0AFB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0996FE12-20F4-432D-8128-99BD6E39D581}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2068,10 +2080,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2098,13 @@
         <v>18572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -2101,13 +2113,13 @@
         <v>34374</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -2116,13 +2128,13 @@
         <v>52947</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,7 +2190,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2190,13 +2202,13 @@
         <v>38688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -2205,13 +2217,13 @@
         <v>76276</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -2220,13 +2232,13 @@
         <v>114964</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2253,13 @@
         <v>16644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2256,13 +2268,13 @@
         <v>31180</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -2271,13 +2283,13 @@
         <v>47824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,7 +2345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2345,13 +2357,13 @@
         <v>35333</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -2360,13 +2372,13 @@
         <v>86738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -2375,13 +2387,13 @@
         <v>122071</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2408,13 @@
         <v>17727</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -2411,13 +2423,13 @@
         <v>27970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -2426,13 +2438,13 @@
         <v>45697</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2500,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2500,13 +2512,13 @@
         <v>85347</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>212</v>
@@ -2515,13 +2527,13 @@
         <v>229416</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
@@ -2530,13 +2542,13 @@
         <v>314762</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2563,13 @@
         <v>26121</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2566,13 +2578,13 @@
         <v>29036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -2581,13 +2593,13 @@
         <v>55157</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2667,13 @@
         <v>201945</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>443</v>
@@ -2670,13 +2682,13 @@
         <v>481044</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>630</v>
@@ -2685,13 +2697,13 @@
         <v>682988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2718,13 @@
         <v>103959</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>143</v>
@@ -2721,13 +2733,13 @@
         <v>157145</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>241</v>
@@ -2736,13 +2748,13 @@
         <v>261104</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,7 +2810,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2820,7 +2832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BC2E40-7B10-4B20-9551-DB6F4FBE2EA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFABDBE-CA39-481C-9947-2B695583C9A8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2837,7 +2849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2944,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2959,13 +2971,13 @@
         <v>1882</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2974,13 +2986,13 @@
         <v>1882</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,10 +3007,10 @@
         <v>2207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3010,13 +3022,13 @@
         <v>8785</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3025,13 +3037,13 @@
         <v>10992</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3111,13 @@
         <v>13541</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3114,13 +3126,13 @@
         <v>16011</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3129,13 +3141,13 @@
         <v>29553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3162,13 @@
         <v>3019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3165,13 +3177,13 @@
         <v>16150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -3180,13 +3192,13 @@
         <v>19169</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3266,13 @@
         <v>22953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3269,13 +3281,13 @@
         <v>44443</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -3284,13 +3296,13 @@
         <v>67396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3317,13 @@
         <v>22608</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -3320,13 +3332,13 @@
         <v>13128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -3335,13 +3347,13 @@
         <v>35737</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,7 +3409,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3409,13 +3421,13 @@
         <v>38826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -3424,13 +3436,13 @@
         <v>63089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -3439,13 +3451,13 @@
         <v>101915</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3472,13 @@
         <v>20319</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -3475,13 +3487,13 @@
         <v>23131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -3490,13 +3502,13 @@
         <v>43450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,7 +3564,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3564,13 +3576,13 @@
         <v>47328</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3579,13 +3591,13 @@
         <v>76545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -3594,13 +3606,13 @@
         <v>123873</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3627,13 @@
         <v>11975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3630,13 +3642,13 @@
         <v>27444</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -3645,13 +3657,13 @@
         <v>39419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,7 +3719,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3719,13 +3731,13 @@
         <v>70189</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -3734,13 +3746,13 @@
         <v>162518</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>211</v>
@@ -3749,13 +3761,13 @@
         <v>232707</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3782,13 @@
         <v>24524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -3785,13 +3797,13 @@
         <v>39613</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -3800,13 +3812,13 @@
         <v>64137</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3886,13 @@
         <v>192837</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>324</v>
@@ -3889,13 +3901,13 @@
         <v>364489</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>507</v>
@@ -3904,13 +3916,13 @@
         <v>557326</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3937,13 @@
         <v>84651</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>119</v>
@@ -3940,13 +3952,13 @@
         <v>128252</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M23" s="7">
         <v>199</v>
@@ -3955,13 +3967,13 @@
         <v>212903</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +4029,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4039,7 +4051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D1039B-9EE6-4CC5-82C7-933B7CF28125}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D480F979-EC65-4545-94CF-80F80EE859D5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4056,7 +4068,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4163,13 +4175,13 @@
         <v>1950</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4178,13 +4190,13 @@
         <v>20320</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4193,13 +4205,13 @@
         <v>22270</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4226,13 @@
         <v>14908</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4229,13 +4241,13 @@
         <v>14450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4244,13 +4256,13 @@
         <v>29358</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4330,13 @@
         <v>12222</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -4333,13 +4345,13 @@
         <v>20267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4348,13 +4360,13 @@
         <v>32489</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4381,13 @@
         <v>16821</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -4384,13 +4396,13 @@
         <v>35715</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4399,13 +4411,13 @@
         <v>52536</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4485,13 @@
         <v>35312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -4488,13 +4500,13 @@
         <v>69917</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -4503,13 +4515,13 @@
         <v>105229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4536,13 @@
         <v>22000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -4539,13 +4551,13 @@
         <v>50940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -4554,13 +4566,13 @@
         <v>72941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,7 +4628,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4628,13 +4640,13 @@
         <v>80115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>203</v>
@@ -4643,13 +4655,13 @@
         <v>135874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>280</v>
@@ -4658,13 +4670,13 @@
         <v>215989</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4691,13 @@
         <v>58439</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>113</v>
@@ -4694,13 +4706,13 @@
         <v>73649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -4709,13 +4721,13 @@
         <v>132088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,7 +4783,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4783,13 +4795,13 @@
         <v>114811</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H16" s="7">
         <v>276</v>
@@ -4798,13 +4810,13 @@
         <v>169233</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>399</v>
@@ -4813,13 +4825,13 @@
         <v>284045</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4846,13 @@
         <v>49177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -4849,13 +4861,13 @@
         <v>64360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -4864,13 +4876,13 @@
         <v>113536</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,7 +4938,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4938,13 +4950,13 @@
         <v>151812</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H19" s="7">
         <v>693</v>
@@ -4953,13 +4965,13 @@
         <v>372702</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>922</v>
@@ -4968,13 +4980,13 @@
         <v>524513</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5001,13 @@
         <v>75894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -5004,13 +5016,13 @@
         <v>101658</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>294</v>
@@ -5019,13 +5031,13 @@
         <v>177552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5105,13 @@
         <v>396221</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H22" s="7">
         <v>1300</v>
@@ -5108,13 +5120,13 @@
         <v>788312</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M22" s="7">
         <v>1773</v>
@@ -5123,13 +5135,13 @@
         <v>1184534</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5156,13 @@
         <v>237240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>515</v>
@@ -5159,13 +5171,13 @@
         <v>340773</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>776</v>
@@ -5174,13 +5186,13 @@
         <v>578012</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,7 +5248,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
